--- a/DisenoADC/TablaCalculoErrorArmonicos_Corriente_AireAcondicionado.xlsx
+++ b/DisenoADC/TablaCalculoErrorArmonicos_Corriente_AireAcondicionado.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b4a3ac2fae305033/Escritorio/ModComT/ModCom/DisenoADC/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b4a3ac2fae305033/Escritorio/ModComT/ModuloComunicacion/DisenoADC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="8_{1D57B2EB-3C4D-4AF9-B722-F9AD04424799}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9DE819A0-A73A-460A-AFBE-8F7DE0A79C7D}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="8_{1D57B2EB-3C4D-4AF9-B722-F9AD04424799}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E1612893-49AF-46B5-9D2B-E6E0501D3036}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3A69C5F3-75E5-4229-9E65-8476BAF346AF}"/>
+    <workbookView minimized="1" xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8964" xr2:uid="{3A69C5F3-75E5-4229-9E65-8476BAF346AF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -9125,16 +9125,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>606972</xdr:colOff>
-      <xdr:row>409</xdr:row>
-      <xdr:rowOff>68317</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>353335</xdr:colOff>
+      <xdr:row>383</xdr:row>
+      <xdr:rowOff>96620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>394138</xdr:colOff>
-      <xdr:row>424</xdr:row>
-      <xdr:rowOff>52551</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>488843</xdr:colOff>
+      <xdr:row>398</xdr:row>
+      <xdr:rowOff>80854</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9161,16 +9161,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1132489</xdr:colOff>
-      <xdr:row>412</xdr:row>
-      <xdr:rowOff>57807</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>74398</xdr:colOff>
+      <xdr:row>401</xdr:row>
+      <xdr:rowOff>147071</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>18393</xdr:colOff>
-      <xdr:row>427</xdr:row>
-      <xdr:rowOff>42041</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>377622</xdr:colOff>
+      <xdr:row>416</xdr:row>
+      <xdr:rowOff>131304</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9497,7 +9497,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7AA8C9E-ADAA-4CB6-A5F6-6F1C63CB309C}">
   <dimension ref="A1:N428"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A411" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A383" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A29" sqref="A29:C428"/>
     </sheetView>
   </sheetViews>
